--- a/data/cp_rcv.xlsx
+++ b/data/cp_rcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.848503441494592</v>
+        <v>0.8829013906447534</v>
       </c>
       <c r="D2">
-        <v>0.8377548387096774</v>
+        <v>0.03274199378815969</v>
       </c>
       <c r="E2">
-        <v>0.8352718970527191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.8711213517665131</v>
+      </c>
+      <c r="F2">
+        <v>0.04629597460331539</v>
+      </c>
+      <c r="G2">
+        <v>0.8677814845704754</v>
+      </c>
+      <c r="H2">
+        <v>0.02473225417214233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.8449557522123893</v>
+        <v>0.8820243362831859</v>
       </c>
       <c r="D3">
-        <v>0.8554322580645162</v>
+        <v>0.03463622964191124</v>
       </c>
       <c r="E3">
-        <v>0.8507430469074304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.8855606758832565</v>
+      </c>
+      <c r="F3">
+        <v>0.05133304089556665</v>
+      </c>
+      <c r="G3">
+        <v>0.8650792326939116</v>
+      </c>
+      <c r="H3">
+        <v>0.0194877306875019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.8839606686332349</v>
+        <v>0.899778761061947</v>
       </c>
       <c r="D4">
-        <v>0.8698322580645161</v>
+        <v>0.03348585117764191</v>
       </c>
       <c r="E4">
-        <v>0.8589580738895808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.8598310291858677</v>
+      </c>
+      <c r="F4">
+        <v>0.03837979361932545</v>
+      </c>
+      <c r="G4">
+        <v>0.8687072560467055</v>
+      </c>
+      <c r="H4">
+        <v>0.03088087950425139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7519921337266471</v>
+        <v>0.7720290771175727</v>
       </c>
       <c r="D5">
-        <v>0.6963483870967743</v>
+        <v>0.03634337026368784</v>
       </c>
       <c r="E5">
-        <v>0.7206226650062266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6763696876600103</v>
+      </c>
+      <c r="F5">
+        <v>0.05243368698360654</v>
+      </c>
+      <c r="G5">
+        <v>0.7365304420350292</v>
+      </c>
+      <c r="H5">
+        <v>0.03467672869555064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.8662222222222222</v>
+        <v>0.8828934892541087</v>
       </c>
       <c r="D6">
-        <v>0.8586838709677419</v>
+        <v>0.02080682216664726</v>
       </c>
       <c r="E6">
-        <v>0.867156496471565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.8936763952892985</v>
+      </c>
+      <c r="F6">
+        <v>0.03770871062676921</v>
+      </c>
+      <c r="G6">
+        <v>0.893369474562135</v>
+      </c>
+      <c r="H6">
+        <v>0.02255618088378395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8865722713864306</v>
+        <v>0.8882269279393172</v>
       </c>
       <c r="D7">
-        <v>0.8297161290322579</v>
+        <v>0.03356348919724214</v>
       </c>
       <c r="E7">
-        <v>0.9098920713989207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.8888376856118791</v>
+      </c>
+      <c r="F7">
+        <v>0.03857748133936107</v>
+      </c>
+      <c r="G7">
+        <v>0.877839866555463</v>
+      </c>
+      <c r="H7">
+        <v>0.01881406225487286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.7529203539823008</v>
+        <v>0.9015170670037925</v>
       </c>
       <c r="D8">
-        <v>0.672141935483871</v>
+        <v>0.01872160108006543</v>
       </c>
       <c r="E8">
-        <v>0.7142009132420091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.8812900688298919</v>
-      </c>
-      <c r="D9">
-        <v>0.8730709677419355</v>
-      </c>
-      <c r="E9">
-        <v>0.8698630136986301</v>
+        <v>0.8904505888376855</v>
+      </c>
+      <c r="F8">
+        <v>0.04012577235616578</v>
+      </c>
+      <c r="G8">
+        <v>0.8714762301918263</v>
+      </c>
+      <c r="H8">
+        <v>0.02416475367188197</v>
       </c>
     </row>
   </sheetData>
